--- a/config_7.27/shoping_config_vivo.xlsx
+++ b/config_7.27/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -10094,11 +10094,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO697"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="O675" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="W627" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A695" sqref="A695:XFD697"/>
+      <selection pane="bottomRight" activeCell="AA642" sqref="AA642"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -51066,10 +51066,10 @@
         <v>99999999</v>
       </c>
       <c r="Z635" s="29">
+        <v>1627344000</v>
+      </c>
+      <c r="AA635" s="29">
         <v>1627919999</v>
-      </c>
-      <c r="AA635" s="29">
-        <v>1627344000</v>
       </c>
       <c r="AB635" s="29">
         <v>80</v>
@@ -51134,10 +51134,10 @@
         <v>99999999</v>
       </c>
       <c r="Z636" s="29">
+        <v>1627344000</v>
+      </c>
+      <c r="AA636" s="29">
         <v>1627919999</v>
-      </c>
-      <c r="AA636" s="29">
-        <v>1627344000</v>
       </c>
       <c r="AB636" s="29">
         <v>80</v>
@@ -51202,10 +51202,10 @@
         <v>99999999</v>
       </c>
       <c r="Z637" s="29">
+        <v>1627344000</v>
+      </c>
+      <c r="AA637" s="29">
         <v>1627919999</v>
-      </c>
-      <c r="AA637" s="29">
-        <v>1627344000</v>
       </c>
       <c r="AB637" s="29">
         <v>80</v>
@@ -51270,10 +51270,10 @@
         <v>99999999</v>
       </c>
       <c r="Z638" s="29">
+        <v>1627344000</v>
+      </c>
+      <c r="AA638" s="29">
         <v>1627919999</v>
-      </c>
-      <c r="AA638" s="29">
-        <v>1627344000</v>
       </c>
       <c r="AB638" s="29">
         <v>81</v>
@@ -51338,10 +51338,10 @@
         <v>99999999</v>
       </c>
       <c r="Z639" s="29">
+        <v>1627344000</v>
+      </c>
+      <c r="AA639" s="29">
         <v>1627919999</v>
-      </c>
-      <c r="AA639" s="29">
-        <v>1627344000</v>
       </c>
       <c r="AB639" s="29">
         <v>81</v>
@@ -51406,10 +51406,10 @@
         <v>99999999</v>
       </c>
       <c r="Z640" s="29">
+        <v>1627344000</v>
+      </c>
+      <c r="AA640" s="29">
         <v>1627919999</v>
-      </c>
-      <c r="AA640" s="29">
-        <v>1627344000</v>
       </c>
       <c r="AB640" s="29">
         <v>81</v>
@@ -51474,10 +51474,10 @@
         <v>99999999</v>
       </c>
       <c r="Z641" s="29">
+        <v>1627344000</v>
+      </c>
+      <c r="AA641" s="29">
         <v>1627919999</v>
-      </c>
-      <c r="AA641" s="29">
-        <v>1627344000</v>
       </c>
       <c r="AB641" s="29">
         <v>82</v>
@@ -51542,10 +51542,10 @@
         <v>99999999</v>
       </c>
       <c r="Z642" s="29">
+        <v>1627344000</v>
+      </c>
+      <c r="AA642" s="29">
         <v>1627919999</v>
-      </c>
-      <c r="AA642" s="29">
-        <v>1627344000</v>
       </c>
       <c r="AB642" s="29">
         <v>82</v>
@@ -51610,10 +51610,10 @@
         <v>99999999</v>
       </c>
       <c r="Z643" s="29">
+        <v>1627344000</v>
+      </c>
+      <c r="AA643" s="29">
         <v>1627919999</v>
-      </c>
-      <c r="AA643" s="29">
-        <v>1627344000</v>
       </c>
       <c r="AB643" s="29">
         <v>82</v>
@@ -51678,10 +51678,10 @@
         <v>99999999</v>
       </c>
       <c r="Z644" s="29">
+        <v>1627344000</v>
+      </c>
+      <c r="AA644" s="29">
         <v>1627919999</v>
-      </c>
-      <c r="AA644" s="29">
-        <v>1627344000</v>
       </c>
       <c r="AB644" s="29">
         <v>83</v>
@@ -51746,10 +51746,10 @@
         <v>99999999</v>
       </c>
       <c r="Z645" s="29">
+        <v>1627344000</v>
+      </c>
+      <c r="AA645" s="29">
         <v>1627919999</v>
-      </c>
-      <c r="AA645" s="29">
-        <v>1627344000</v>
       </c>
       <c r="AB645" s="29">
         <v>83</v>
@@ -51814,10 +51814,10 @@
         <v>99999999</v>
       </c>
       <c r="Z646" s="29">
+        <v>1627344000</v>
+      </c>
+      <c r="AA646" s="29">
         <v>1627919999</v>
-      </c>
-      <c r="AA646" s="29">
-        <v>1627344000</v>
       </c>
       <c r="AB646" s="29">
         <v>83</v>
@@ -55270,8 +55270,8 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -55279,7 +55279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>

--- a/config_7.27/shoping_config_vivo.xlsx
+++ b/config_7.27/shoping_config_vivo.xlsx
@@ -6836,10 +6836,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6880,23 +6880,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6910,14 +6896,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -6926,7 +6904,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6942,14 +6950,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6966,38 +6982,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7010,8 +7009,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7115,7 +7115,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7127,7 +7139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7139,19 +7151,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7163,43 +7193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7211,7 +7205,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7235,19 +7235,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7259,13 +7253,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7306,21 +7306,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -7331,15 +7316,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7359,11 +7335,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7372,17 +7354,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7402,6 +7373,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7410,10 +7410,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7422,91 +7422,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7521,10 +7521,10 @@
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7533,22 +7533,22 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7729,10 +7729,10 @@
     <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -10316,11 +10316,11 @@
   <dimension ref="A1:AO694"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="O666" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="O675" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A671" sqref="$A671:$XFD682"/>
+      <selection pane="bottomRight" activeCell="Q703" sqref="Q703"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -51241,819 +51241,819 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:40">
-      <c r="A635" s="21">
+    <row r="635" s="29" customFormat="1" spans="1:40">
+      <c r="A635" s="29">
         <v>634</v>
       </c>
-      <c r="B635" s="31">
+      <c r="B635" s="29">
         <v>10551</v>
       </c>
-      <c r="F635" s="21">
-        <v>1</v>
-      </c>
-      <c r="G635" s="31" t="s">
+      <c r="F635" s="29">
+        <v>1</v>
+      </c>
+      <c r="G635" s="29" t="s">
         <v>1625</v>
       </c>
-      <c r="J635" s="28" t="s">
+      <c r="J635" s="29" t="s">
         <v>1547</v>
       </c>
-      <c r="K635" s="31" t="s">
+      <c r="K635" s="29" t="s">
         <v>1626</v>
       </c>
-      <c r="M635" s="28">
+      <c r="M635" s="29">
         <v>-31</v>
       </c>
-      <c r="N635" s="28">
-        <v>0</v>
-      </c>
-      <c r="O635" s="28">
-        <v>0</v>
-      </c>
-      <c r="P635" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q635" s="31">
+      <c r="N635" s="29">
+        <v>0</v>
+      </c>
+      <c r="O635" s="29">
+        <v>0</v>
+      </c>
+      <c r="P635" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q635" s="29">
         <v>600</v>
       </c>
-      <c r="R635" s="31" t="s">
+      <c r="R635" s="29" t="s">
         <v>1627</v>
       </c>
-      <c r="S635" s="55" t="s">
+      <c r="S635" s="58" t="s">
         <v>1628</v>
       </c>
-      <c r="X635" s="28" t="s">
+      <c r="X635" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="Y635" s="28">
+      <c r="Y635" s="29">
         <v>99999999</v>
       </c>
-      <c r="Z635" s="31">
-        <v>1624320000</v>
-      </c>
-      <c r="AA635" s="31">
-        <v>1624895999</v>
-      </c>
-      <c r="AB635" s="31">
+      <c r="Z635" s="29">
+        <v>1627919999</v>
+      </c>
+      <c r="AA635" s="29">
+        <v>1627344000</v>
+      </c>
+      <c r="AB635" s="29">
         <v>80</v>
       </c>
-      <c r="AI635" s="31">
-        <v>1</v>
-      </c>
-      <c r="AJ635" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM635" s="31">
-        <v>1</v>
-      </c>
-      <c r="AN635" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="636" spans="1:40">
-      <c r="A636" s="21">
+      <c r="AI635" s="29">
+        <v>1</v>
+      </c>
+      <c r="AJ635" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM635" s="29">
+        <v>1</v>
+      </c>
+      <c r="AN635" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" s="29" customFormat="1" spans="1:40">
+      <c r="A636" s="29">
         <v>635</v>
       </c>
-      <c r="B636" s="31">
+      <c r="B636" s="29">
         <v>10552</v>
       </c>
-      <c r="F636" s="21">
-        <v>1</v>
-      </c>
-      <c r="G636" s="31" t="s">
+      <c r="F636" s="29">
+        <v>1</v>
+      </c>
+      <c r="G636" s="29" t="s">
         <v>1625</v>
       </c>
-      <c r="J636" s="28" t="s">
+      <c r="J636" s="29" t="s">
         <v>1547</v>
       </c>
-      <c r="K636" s="31" t="s">
+      <c r="K636" s="29" t="s">
         <v>1629</v>
       </c>
-      <c r="M636" s="28">
+      <c r="M636" s="29">
         <v>-31</v>
       </c>
-      <c r="N636" s="28">
-        <v>0</v>
-      </c>
-      <c r="O636" s="28">
-        <v>0</v>
-      </c>
-      <c r="P636" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q636" s="31">
+      <c r="N636" s="29">
+        <v>0</v>
+      </c>
+      <c r="O636" s="29">
+        <v>0</v>
+      </c>
+      <c r="P636" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q636" s="29">
         <v>1000</v>
       </c>
-      <c r="R636" s="31" t="s">
+      <c r="R636" s="29" t="s">
         <v>1627</v>
       </c>
-      <c r="S636" s="55" t="s">
+      <c r="S636" s="58" t="s">
         <v>1630</v>
       </c>
-      <c r="X636" s="28" t="s">
+      <c r="X636" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="Y636" s="28">
+      <c r="Y636" s="29">
         <v>99999999</v>
       </c>
-      <c r="Z636" s="31">
-        <v>1624320000</v>
-      </c>
-      <c r="AA636" s="31">
-        <v>1624895999</v>
-      </c>
-      <c r="AB636" s="31">
+      <c r="Z636" s="29">
+        <v>1627919999</v>
+      </c>
+      <c r="AA636" s="29">
+        <v>1627344000</v>
+      </c>
+      <c r="AB636" s="29">
         <v>80</v>
       </c>
-      <c r="AI636" s="31">
-        <v>1</v>
-      </c>
-      <c r="AJ636" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM636" s="31">
-        <v>1</v>
-      </c>
-      <c r="AN636" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="637" spans="1:40">
-      <c r="A637" s="21">
+      <c r="AI636" s="29">
+        <v>1</v>
+      </c>
+      <c r="AJ636" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM636" s="29">
+        <v>1</v>
+      </c>
+      <c r="AN636" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" s="29" customFormat="1" spans="1:40">
+      <c r="A637" s="29">
         <v>636</v>
       </c>
-      <c r="B637" s="31">
+      <c r="B637" s="29">
         <v>10553</v>
       </c>
-      <c r="F637" s="21">
-        <v>1</v>
-      </c>
-      <c r="G637" s="31" t="s">
+      <c r="F637" s="29">
+        <v>1</v>
+      </c>
+      <c r="G637" s="29" t="s">
         <v>1625</v>
       </c>
-      <c r="J637" s="28" t="s">
+      <c r="J637" s="29" t="s">
         <v>1547</v>
       </c>
-      <c r="K637" s="31" t="s">
+      <c r="K637" s="29" t="s">
         <v>1631</v>
       </c>
-      <c r="M637" s="28">
+      <c r="M637" s="29">
         <v>-31</v>
       </c>
-      <c r="N637" s="28">
-        <v>0</v>
-      </c>
-      <c r="O637" s="28">
-        <v>0</v>
-      </c>
-      <c r="P637" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q637" s="31">
+      <c r="N637" s="29">
+        <v>0</v>
+      </c>
+      <c r="O637" s="29">
+        <v>0</v>
+      </c>
+      <c r="P637" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q637" s="29">
         <v>1800</v>
       </c>
-      <c r="R637" s="31" t="s">
+      <c r="R637" s="29" t="s">
         <v>1627</v>
       </c>
-      <c r="S637" s="55" t="s">
+      <c r="S637" s="58" t="s">
         <v>1632</v>
       </c>
-      <c r="X637" s="28" t="s">
+      <c r="X637" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="Y637" s="28">
+      <c r="Y637" s="29">
         <v>99999999</v>
       </c>
-      <c r="Z637" s="31">
-        <v>1624320000</v>
-      </c>
-      <c r="AA637" s="31">
-        <v>1624895999</v>
-      </c>
-      <c r="AB637" s="31">
+      <c r="Z637" s="29">
+        <v>1627919999</v>
+      </c>
+      <c r="AA637" s="29">
+        <v>1627344000</v>
+      </c>
+      <c r="AB637" s="29">
         <v>80</v>
       </c>
-      <c r="AI637" s="31">
-        <v>1</v>
-      </c>
-      <c r="AJ637" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM637" s="31">
-        <v>1</v>
-      </c>
-      <c r="AN637" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="638" spans="1:40">
-      <c r="A638" s="21">
+      <c r="AI637" s="29">
+        <v>1</v>
+      </c>
+      <c r="AJ637" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM637" s="29">
+        <v>1</v>
+      </c>
+      <c r="AN637" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" s="29" customFormat="1" spans="1:40">
+      <c r="A638" s="29">
         <v>637</v>
       </c>
-      <c r="B638" s="31">
+      <c r="B638" s="29">
         <v>10554</v>
       </c>
-      <c r="F638" s="21">
-        <v>1</v>
-      </c>
-      <c r="G638" s="31" t="s">
+      <c r="F638" s="29">
+        <v>1</v>
+      </c>
+      <c r="G638" s="29" t="s">
         <v>1625</v>
       </c>
-      <c r="J638" s="28" t="s">
+      <c r="J638" s="29" t="s">
         <v>1554</v>
       </c>
-      <c r="K638" s="31" t="s">
+      <c r="K638" s="29" t="s">
         <v>1633</v>
       </c>
-      <c r="M638" s="28">
+      <c r="M638" s="29">
         <v>-31</v>
       </c>
-      <c r="N638" s="28">
-        <v>0</v>
-      </c>
-      <c r="O638" s="28">
-        <v>0</v>
-      </c>
-      <c r="P638" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q638" s="31">
+      <c r="N638" s="29">
+        <v>0</v>
+      </c>
+      <c r="O638" s="29">
+        <v>0</v>
+      </c>
+      <c r="P638" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q638" s="29">
         <v>1800</v>
       </c>
-      <c r="R638" s="31" t="s">
+      <c r="R638" s="29" t="s">
         <v>1627</v>
       </c>
-      <c r="S638" s="55" t="s">
+      <c r="S638" s="58" t="s">
         <v>1634</v>
       </c>
-      <c r="X638" s="28" t="s">
+      <c r="X638" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="Y638" s="28">
+      <c r="Y638" s="29">
         <v>99999999</v>
       </c>
-      <c r="Z638" s="31">
-        <v>1624320000</v>
-      </c>
-      <c r="AA638" s="31">
-        <v>1624895999</v>
-      </c>
-      <c r="AB638" s="31">
+      <c r="Z638" s="29">
+        <v>1627919999</v>
+      </c>
+      <c r="AA638" s="29">
+        <v>1627344000</v>
+      </c>
+      <c r="AB638" s="29">
         <v>81</v>
       </c>
-      <c r="AI638" s="31">
-        <v>1</v>
-      </c>
-      <c r="AJ638" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM638" s="31">
-        <v>1</v>
-      </c>
-      <c r="AN638" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="639" spans="1:40">
-      <c r="A639" s="21">
+      <c r="AI638" s="29">
+        <v>1</v>
+      </c>
+      <c r="AJ638" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM638" s="29">
+        <v>1</v>
+      </c>
+      <c r="AN638" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" s="29" customFormat="1" spans="1:40">
+      <c r="A639" s="29">
         <v>638</v>
       </c>
-      <c r="B639" s="31">
+      <c r="B639" s="29">
         <v>10555</v>
       </c>
-      <c r="F639" s="21">
-        <v>1</v>
-      </c>
-      <c r="G639" s="31" t="s">
+      <c r="F639" s="29">
+        <v>1</v>
+      </c>
+      <c r="G639" s="29" t="s">
         <v>1625</v>
       </c>
-      <c r="J639" s="28" t="s">
+      <c r="J639" s="29" t="s">
         <v>1554</v>
       </c>
-      <c r="K639" s="31" t="s">
+      <c r="K639" s="29" t="s">
         <v>1635</v>
       </c>
-      <c r="M639" s="28">
+      <c r="M639" s="29">
         <v>-31</v>
       </c>
-      <c r="N639" s="28">
-        <v>0</v>
-      </c>
-      <c r="O639" s="28">
-        <v>0</v>
-      </c>
-      <c r="P639" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q639" s="31">
+      <c r="N639" s="29">
+        <v>0</v>
+      </c>
+      <c r="O639" s="29">
+        <v>0</v>
+      </c>
+      <c r="P639" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q639" s="29">
         <v>3000</v>
       </c>
-      <c r="R639" s="31" t="s">
+      <c r="R639" s="29" t="s">
         <v>1627</v>
       </c>
-      <c r="S639" s="55" t="s">
+      <c r="S639" s="58" t="s">
         <v>1636</v>
       </c>
-      <c r="X639" s="28" t="s">
+      <c r="X639" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="Y639" s="28">
+      <c r="Y639" s="29">
         <v>99999999</v>
       </c>
-      <c r="Z639" s="31">
-        <v>1624320000</v>
-      </c>
-      <c r="AA639" s="31">
-        <v>1624895999</v>
-      </c>
-      <c r="AB639" s="31">
+      <c r="Z639" s="29">
+        <v>1627919999</v>
+      </c>
+      <c r="AA639" s="29">
+        <v>1627344000</v>
+      </c>
+      <c r="AB639" s="29">
         <v>81</v>
       </c>
-      <c r="AI639" s="31">
-        <v>1</v>
-      </c>
-      <c r="AJ639" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM639" s="31">
-        <v>1</v>
-      </c>
-      <c r="AN639" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="640" spans="1:40">
-      <c r="A640" s="21">
+      <c r="AI639" s="29">
+        <v>1</v>
+      </c>
+      <c r="AJ639" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM639" s="29">
+        <v>1</v>
+      </c>
+      <c r="AN639" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" s="29" customFormat="1" spans="1:40">
+      <c r="A640" s="29">
         <v>639</v>
       </c>
-      <c r="B640" s="31">
+      <c r="B640" s="29">
         <v>10556</v>
       </c>
-      <c r="F640" s="21">
-        <v>1</v>
-      </c>
-      <c r="G640" s="31" t="s">
+      <c r="F640" s="29">
+        <v>1</v>
+      </c>
+      <c r="G640" s="29" t="s">
         <v>1625</v>
       </c>
-      <c r="J640" s="28" t="s">
+      <c r="J640" s="29" t="s">
         <v>1554</v>
       </c>
-      <c r="K640" s="31" t="s">
+      <c r="K640" s="29" t="s">
         <v>1637</v>
       </c>
-      <c r="M640" s="28">
+      <c r="M640" s="29">
         <v>-31</v>
       </c>
-      <c r="N640" s="28">
-        <v>0</v>
-      </c>
-      <c r="O640" s="28">
-        <v>0</v>
-      </c>
-      <c r="P640" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q640" s="31">
+      <c r="N640" s="29">
+        <v>0</v>
+      </c>
+      <c r="O640" s="29">
+        <v>0</v>
+      </c>
+      <c r="P640" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q640" s="29">
         <v>4800</v>
       </c>
-      <c r="R640" s="31" t="s">
+      <c r="R640" s="29" t="s">
         <v>1627</v>
       </c>
-      <c r="S640" s="55" t="s">
+      <c r="S640" s="58" t="s">
         <v>1638</v>
       </c>
-      <c r="X640" s="28" t="s">
+      <c r="X640" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="Y640" s="28">
+      <c r="Y640" s="29">
         <v>99999999</v>
       </c>
-      <c r="Z640" s="31">
-        <v>1624320000</v>
-      </c>
-      <c r="AA640" s="31">
-        <v>1624895999</v>
-      </c>
-      <c r="AB640" s="31">
+      <c r="Z640" s="29">
+        <v>1627919999</v>
+      </c>
+      <c r="AA640" s="29">
+        <v>1627344000</v>
+      </c>
+      <c r="AB640" s="29">
         <v>81</v>
       </c>
-      <c r="AI640" s="31">
-        <v>1</v>
-      </c>
-      <c r="AJ640" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM640" s="31">
-        <v>1</v>
-      </c>
-      <c r="AN640" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="641" spans="1:40">
-      <c r="A641" s="21">
+      <c r="AI640" s="29">
+        <v>1</v>
+      </c>
+      <c r="AJ640" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM640" s="29">
+        <v>1</v>
+      </c>
+      <c r="AN640" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" s="29" customFormat="1" spans="1:40">
+      <c r="A641" s="29">
         <v>640</v>
       </c>
-      <c r="B641" s="31">
+      <c r="B641" s="29">
         <v>10557</v>
       </c>
-      <c r="F641" s="21">
-        <v>1</v>
-      </c>
-      <c r="G641" s="31" t="s">
+      <c r="F641" s="29">
+        <v>1</v>
+      </c>
+      <c r="G641" s="29" t="s">
         <v>1625</v>
       </c>
-      <c r="J641" s="28" t="s">
+      <c r="J641" s="29" t="s">
         <v>1561</v>
       </c>
-      <c r="K641" s="31" t="s">
+      <c r="K641" s="29" t="s">
         <v>1637</v>
       </c>
-      <c r="M641" s="28">
+      <c r="M641" s="29">
         <v>-31</v>
       </c>
-      <c r="N641" s="28">
-        <v>0</v>
-      </c>
-      <c r="O641" s="28">
-        <v>0</v>
-      </c>
-      <c r="P641" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q641" s="31">
+      <c r="N641" s="29">
+        <v>0</v>
+      </c>
+      <c r="O641" s="29">
+        <v>0</v>
+      </c>
+      <c r="P641" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q641" s="29">
         <v>4800</v>
       </c>
-      <c r="R641" s="31" t="s">
+      <c r="R641" s="29" t="s">
         <v>1627</v>
       </c>
-      <c r="S641" s="55" t="s">
+      <c r="S641" s="58" t="s">
         <v>1638</v>
       </c>
-      <c r="X641" s="28" t="s">
+      <c r="X641" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="Y641" s="28">
+      <c r="Y641" s="29">
         <v>99999999</v>
       </c>
-      <c r="Z641" s="31">
-        <v>1624320000</v>
-      </c>
-      <c r="AA641" s="31">
-        <v>1624895999</v>
-      </c>
-      <c r="AB641" s="31">
+      <c r="Z641" s="29">
+        <v>1627919999</v>
+      </c>
+      <c r="AA641" s="29">
+        <v>1627344000</v>
+      </c>
+      <c r="AB641" s="29">
         <v>82</v>
       </c>
-      <c r="AI641" s="31">
-        <v>1</v>
-      </c>
-      <c r="AJ641" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM641" s="31">
-        <v>1</v>
-      </c>
-      <c r="AN641" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="642" spans="1:40">
-      <c r="A642" s="21">
+      <c r="AI641" s="29">
+        <v>1</v>
+      </c>
+      <c r="AJ641" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM641" s="29">
+        <v>1</v>
+      </c>
+      <c r="AN641" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" s="29" customFormat="1" spans="1:40">
+      <c r="A642" s="29">
         <v>641</v>
       </c>
-      <c r="B642" s="31">
+      <c r="B642" s="29">
         <v>10558</v>
       </c>
-      <c r="F642" s="21">
-        <v>1</v>
-      </c>
-      <c r="G642" s="31" t="s">
+      <c r="F642" s="29">
+        <v>1</v>
+      </c>
+      <c r="G642" s="29" t="s">
         <v>1625</v>
       </c>
-      <c r="J642" s="28" t="s">
+      <c r="J642" s="29" t="s">
         <v>1561</v>
       </c>
-      <c r="K642" s="31" t="s">
+      <c r="K642" s="29" t="s">
         <v>1639</v>
       </c>
-      <c r="M642" s="28">
+      <c r="M642" s="29">
         <v>-31</v>
       </c>
-      <c r="N642" s="28">
-        <v>0</v>
-      </c>
-      <c r="O642" s="28">
-        <v>0</v>
-      </c>
-      <c r="P642" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q642" s="31">
+      <c r="N642" s="29">
+        <v>0</v>
+      </c>
+      <c r="O642" s="29">
+        <v>0</v>
+      </c>
+      <c r="P642" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q642" s="29">
         <v>9800</v>
       </c>
-      <c r="R642" s="31" t="s">
+      <c r="R642" s="29" t="s">
         <v>1627</v>
       </c>
-      <c r="S642" s="55" t="s">
+      <c r="S642" s="58" t="s">
         <v>1640</v>
       </c>
-      <c r="X642" s="28" t="s">
+      <c r="X642" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="Y642" s="28">
+      <c r="Y642" s="29">
         <v>99999999</v>
       </c>
-      <c r="Z642" s="31">
-        <v>1624320000</v>
-      </c>
-      <c r="AA642" s="31">
-        <v>1624895999</v>
-      </c>
-      <c r="AB642" s="31">
+      <c r="Z642" s="29">
+        <v>1627919999</v>
+      </c>
+      <c r="AA642" s="29">
+        <v>1627344000</v>
+      </c>
+      <c r="AB642" s="29">
         <v>82</v>
       </c>
-      <c r="AI642" s="31">
-        <v>1</v>
-      </c>
-      <c r="AJ642" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM642" s="31">
-        <v>1</v>
-      </c>
-      <c r="AN642" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="643" spans="1:40">
-      <c r="A643" s="21">
+      <c r="AI642" s="29">
+        <v>1</v>
+      </c>
+      <c r="AJ642" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM642" s="29">
+        <v>1</v>
+      </c>
+      <c r="AN642" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" s="29" customFormat="1" spans="1:40">
+      <c r="A643" s="29">
         <v>642</v>
       </c>
-      <c r="B643" s="31">
+      <c r="B643" s="29">
         <v>10559</v>
       </c>
-      <c r="F643" s="21">
-        <v>1</v>
-      </c>
-      <c r="G643" s="31" t="s">
+      <c r="F643" s="29">
+        <v>1</v>
+      </c>
+      <c r="G643" s="29" t="s">
         <v>1625</v>
       </c>
-      <c r="J643" s="28" t="s">
+      <c r="J643" s="29" t="s">
         <v>1561</v>
       </c>
-      <c r="K643" s="31" t="s">
+      <c r="K643" s="29" t="s">
         <v>1641</v>
       </c>
-      <c r="M643" s="28">
+      <c r="M643" s="29">
         <v>-31</v>
       </c>
-      <c r="N643" s="28">
-        <v>0</v>
-      </c>
-      <c r="O643" s="28">
-        <v>0</v>
-      </c>
-      <c r="P643" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q643" s="31">
+      <c r="N643" s="29">
+        <v>0</v>
+      </c>
+      <c r="O643" s="29">
+        <v>0</v>
+      </c>
+      <c r="P643" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q643" s="29">
         <v>19800</v>
       </c>
-      <c r="R643" s="31" t="s">
+      <c r="R643" s="29" t="s">
         <v>1627</v>
       </c>
-      <c r="S643" s="55" t="s">
+      <c r="S643" s="58" t="s">
         <v>1642</v>
       </c>
-      <c r="X643" s="28" t="s">
+      <c r="X643" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="Y643" s="28">
+      <c r="Y643" s="29">
         <v>99999999</v>
       </c>
-      <c r="Z643" s="31">
-        <v>1624320000</v>
-      </c>
-      <c r="AA643" s="31">
-        <v>1624895999</v>
-      </c>
-      <c r="AB643" s="31">
+      <c r="Z643" s="29">
+        <v>1627919999</v>
+      </c>
+      <c r="AA643" s="29">
+        <v>1627344000</v>
+      </c>
+      <c r="AB643" s="29">
         <v>82</v>
       </c>
-      <c r="AI643" s="31">
-        <v>1</v>
-      </c>
-      <c r="AJ643" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM643" s="31">
-        <v>1</v>
-      </c>
-      <c r="AN643" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="644" spans="1:40">
-      <c r="A644" s="21">
+      <c r="AI643" s="29">
+        <v>1</v>
+      </c>
+      <c r="AJ643" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM643" s="29">
+        <v>1</v>
+      </c>
+      <c r="AN643" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" s="29" customFormat="1" spans="1:40">
+      <c r="A644" s="29">
         <v>643</v>
       </c>
-      <c r="B644" s="31">
+      <c r="B644" s="29">
         <v>10560</v>
       </c>
-      <c r="F644" s="21">
-        <v>1</v>
-      </c>
-      <c r="G644" s="31" t="s">
+      <c r="F644" s="29">
+        <v>1</v>
+      </c>
+      <c r="G644" s="29" t="s">
         <v>1625</v>
       </c>
-      <c r="J644" s="28" t="s">
+      <c r="J644" s="29" t="s">
         <v>1450</v>
       </c>
-      <c r="K644" s="31" t="s">
+      <c r="K644" s="29" t="s">
         <v>1639</v>
       </c>
-      <c r="M644" s="28">
+      <c r="M644" s="29">
         <v>-31</v>
       </c>
-      <c r="N644" s="28">
-        <v>0</v>
-      </c>
-      <c r="O644" s="28">
-        <v>0</v>
-      </c>
-      <c r="P644" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q644" s="31">
+      <c r="N644" s="29">
+        <v>0</v>
+      </c>
+      <c r="O644" s="29">
+        <v>0</v>
+      </c>
+      <c r="P644" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q644" s="29">
         <v>9800</v>
       </c>
-      <c r="R644" s="31" t="s">
+      <c r="R644" s="29" t="s">
         <v>1627</v>
       </c>
-      <c r="S644" s="55" t="s">
+      <c r="S644" s="58" t="s">
         <v>1640</v>
       </c>
-      <c r="X644" s="28" t="s">
+      <c r="X644" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="Y644" s="28">
+      <c r="Y644" s="29">
         <v>99999999</v>
       </c>
-      <c r="Z644" s="31">
-        <v>1624320000</v>
-      </c>
-      <c r="AA644" s="31">
-        <v>1624895999</v>
-      </c>
-      <c r="AB644" s="31">
+      <c r="Z644" s="29">
+        <v>1627919999</v>
+      </c>
+      <c r="AA644" s="29">
+        <v>1627344000</v>
+      </c>
+      <c r="AB644" s="29">
         <v>83</v>
       </c>
-      <c r="AI644" s="31">
-        <v>1</v>
-      </c>
-      <c r="AJ644" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM644" s="31">
-        <v>1</v>
-      </c>
-      <c r="AN644" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="645" spans="1:40">
-      <c r="A645" s="21">
+      <c r="AI644" s="29">
+        <v>1</v>
+      </c>
+      <c r="AJ644" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM644" s="29">
+        <v>1</v>
+      </c>
+      <c r="AN644" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" s="29" customFormat="1" spans="1:40">
+      <c r="A645" s="29">
         <v>644</v>
       </c>
-      <c r="B645" s="31">
+      <c r="B645" s="29">
         <v>10561</v>
       </c>
-      <c r="F645" s="21">
-        <v>1</v>
-      </c>
-      <c r="G645" s="31" t="s">
+      <c r="F645" s="29">
+        <v>1</v>
+      </c>
+      <c r="G645" s="29" t="s">
         <v>1625</v>
       </c>
-      <c r="J645" s="28" t="s">
+      <c r="J645" s="29" t="s">
         <v>1450</v>
       </c>
-      <c r="K645" s="31" t="s">
+      <c r="K645" s="29" t="s">
         <v>1641</v>
       </c>
-      <c r="M645" s="28">
+      <c r="M645" s="29">
         <v>-31</v>
       </c>
-      <c r="N645" s="28">
-        <v>0</v>
-      </c>
-      <c r="O645" s="28">
-        <v>0</v>
-      </c>
-      <c r="P645" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q645" s="31">
+      <c r="N645" s="29">
+        <v>0</v>
+      </c>
+      <c r="O645" s="29">
+        <v>0</v>
+      </c>
+      <c r="P645" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q645" s="29">
         <v>19800</v>
       </c>
-      <c r="R645" s="31" t="s">
+      <c r="R645" s="29" t="s">
         <v>1627</v>
       </c>
-      <c r="S645" s="55" t="s">
+      <c r="S645" s="58" t="s">
         <v>1642</v>
       </c>
-      <c r="X645" s="28" t="s">
+      <c r="X645" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="Y645" s="28">
+      <c r="Y645" s="29">
         <v>99999999</v>
       </c>
-      <c r="Z645" s="31">
-        <v>1624320000</v>
-      </c>
-      <c r="AA645" s="31">
-        <v>1624895999</v>
-      </c>
-      <c r="AB645" s="31">
+      <c r="Z645" s="29">
+        <v>1627919999</v>
+      </c>
+      <c r="AA645" s="29">
+        <v>1627344000</v>
+      </c>
+      <c r="AB645" s="29">
         <v>83</v>
       </c>
-      <c r="AI645" s="31">
-        <v>1</v>
-      </c>
-      <c r="AJ645" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM645" s="31">
-        <v>1</v>
-      </c>
-      <c r="AN645" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="646" spans="1:40">
-      <c r="A646" s="21">
+      <c r="AI645" s="29">
+        <v>1</v>
+      </c>
+      <c r="AJ645" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM645" s="29">
+        <v>1</v>
+      </c>
+      <c r="AN645" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" s="29" customFormat="1" spans="1:40">
+      <c r="A646" s="29">
         <v>645</v>
       </c>
-      <c r="B646" s="31">
+      <c r="B646" s="29">
         <v>10562</v>
       </c>
-      <c r="F646" s="21">
-        <v>1</v>
-      </c>
-      <c r="G646" s="31" t="s">
+      <c r="F646" s="29">
+        <v>1</v>
+      </c>
+      <c r="G646" s="29" t="s">
         <v>1625</v>
       </c>
-      <c r="J646" s="28" t="s">
+      <c r="J646" s="29" t="s">
         <v>1450</v>
       </c>
-      <c r="K646" s="31" t="s">
+      <c r="K646" s="29" t="s">
         <v>1643</v>
       </c>
-      <c r="M646" s="28">
+      <c r="M646" s="29">
         <v>-31</v>
       </c>
-      <c r="N646" s="28">
-        <v>0</v>
-      </c>
-      <c r="O646" s="28">
-        <v>0</v>
-      </c>
-      <c r="P646" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q646" s="31">
+      <c r="N646" s="29">
+        <v>0</v>
+      </c>
+      <c r="O646" s="29">
+        <v>0</v>
+      </c>
+      <c r="P646" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q646" s="29">
         <v>49800</v>
       </c>
-      <c r="R646" s="31" t="s">
+      <c r="R646" s="29" t="s">
         <v>1627</v>
       </c>
-      <c r="S646" s="55" t="s">
+      <c r="S646" s="58" t="s">
         <v>1644</v>
       </c>
-      <c r="X646" s="28" t="s">
+      <c r="X646" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="Y646" s="28">
+      <c r="Y646" s="29">
         <v>99999999</v>
       </c>
-      <c r="Z646" s="31">
-        <v>1624320000</v>
-      </c>
-      <c r="AA646" s="31">
-        <v>1624895999</v>
-      </c>
-      <c r="AB646" s="31">
+      <c r="Z646" s="29">
+        <v>1627919999</v>
+      </c>
+      <c r="AA646" s="29">
+        <v>1627344000</v>
+      </c>
+      <c r="AB646" s="29">
         <v>83</v>
       </c>
-      <c r="AI646" s="31">
-        <v>1</v>
-      </c>
-      <c r="AJ646" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM646" s="31">
-        <v>1</v>
-      </c>
-      <c r="AN646" s="31">
+      <c r="AI646" s="29">
+        <v>1</v>
+      </c>
+      <c r="AJ646" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM646" s="29">
+        <v>1</v>
+      </c>
+      <c r="AN646" s="29">
         <v>1</v>
       </c>
     </row>
@@ -52091,7 +52091,7 @@
       <c r="R647" s="24" t="s">
         <v>1647</v>
       </c>
-      <c r="S647" s="58" t="s">
+      <c r="S647" s="59" t="s">
         <v>1648</v>
       </c>
       <c r="X647" s="24" t="s">
@@ -52153,7 +52153,7 @@
       <c r="R648" s="24" t="s">
         <v>1647</v>
       </c>
-      <c r="S648" s="58" t="s">
+      <c r="S648" s="59" t="s">
         <v>1652</v>
       </c>
       <c r="X648" s="24" t="s">
@@ -52560,8 +52560,8 @@
       <c r="B655" s="31">
         <v>10571</v>
       </c>
-      <c r="F655" s="31">
-        <v>1</v>
+      <c r="F655" s="21">
+        <v>0</v>
       </c>
       <c r="G655" s="31" t="s">
         <v>1116</v>
@@ -52622,8 +52622,8 @@
       <c r="B656" s="31">
         <v>10572</v>
       </c>
-      <c r="F656" s="31">
-        <v>1</v>
+      <c r="F656" s="21">
+        <v>0</v>
       </c>
       <c r="G656" s="31" t="s">
         <v>1120</v>
@@ -52684,8 +52684,8 @@
       <c r="B657" s="31">
         <v>10573</v>
       </c>
-      <c r="F657" s="31">
-        <v>1</v>
+      <c r="F657" s="21">
+        <v>0</v>
       </c>
       <c r="G657" s="31" t="s">
         <v>1123</v>
@@ -52746,8 +52746,8 @@
       <c r="B658" s="31">
         <v>10574</v>
       </c>
-      <c r="F658" s="31">
-        <v>1</v>
+      <c r="F658" s="21">
+        <v>0</v>
       </c>
       <c r="G658" s="31" t="s">
         <v>1127</v>
@@ -52808,8 +52808,8 @@
       <c r="B659" s="31">
         <v>10575</v>
       </c>
-      <c r="F659" s="31">
-        <v>1</v>
+      <c r="F659" s="21">
+        <v>0</v>
       </c>
       <c r="G659" s="31" t="s">
         <v>1130</v>
@@ -52870,8 +52870,8 @@
       <c r="B660" s="31">
         <v>10576</v>
       </c>
-      <c r="F660" s="31">
-        <v>1</v>
+      <c r="F660" s="21">
+        <v>0</v>
       </c>
       <c r="G660" s="31" t="s">
         <v>1133</v>
@@ -52932,8 +52932,8 @@
       <c r="B661" s="31">
         <v>10577</v>
       </c>
-      <c r="F661" s="31">
-        <v>1</v>
+      <c r="F661" s="21">
+        <v>0</v>
       </c>
       <c r="G661" s="31" t="s">
         <v>1137</v>
@@ -52994,8 +52994,8 @@
       <c r="B662" s="29">
         <v>10578</v>
       </c>
-      <c r="F662" s="29">
-        <v>1</v>
+      <c r="F662" s="21">
+        <v>0</v>
       </c>
       <c r="G662" s="29" t="s">
         <v>1595</v>
@@ -53027,7 +53027,7 @@
       <c r="R662" s="29" t="s">
         <v>1598</v>
       </c>
-      <c r="S662" s="59" t="s">
+      <c r="S662" s="58" t="s">
         <v>1075</v>
       </c>
       <c r="X662" s="29" t="s">
@@ -53065,8 +53065,8 @@
       <c r="B663" s="29">
         <v>10579</v>
       </c>
-      <c r="F663" s="29">
-        <v>1</v>
+      <c r="F663" s="21">
+        <v>0</v>
       </c>
       <c r="G663" s="29" t="s">
         <v>1595</v>
@@ -53098,7 +53098,7 @@
       <c r="R663" s="29" t="s">
         <v>1600</v>
       </c>
-      <c r="S663" s="59" t="s">
+      <c r="S663" s="58" t="s">
         <v>1079</v>
       </c>
       <c r="X663" s="29" t="s">
@@ -53136,8 +53136,8 @@
       <c r="B664" s="29">
         <v>10580</v>
       </c>
-      <c r="F664" s="29">
-        <v>1</v>
+      <c r="F664" s="21">
+        <v>0</v>
       </c>
       <c r="G664" s="29" t="s">
         <v>1595</v>
@@ -53169,7 +53169,7 @@
       <c r="R664" s="29" t="s">
         <v>1602</v>
       </c>
-      <c r="S664" s="59" t="s">
+      <c r="S664" s="58" t="s">
         <v>1083</v>
       </c>
       <c r="X664" s="29" t="s">
@@ -53207,8 +53207,8 @@
       <c r="B665" s="29">
         <v>10581</v>
       </c>
-      <c r="F665" s="29">
-        <v>1</v>
+      <c r="F665" s="21">
+        <v>0</v>
       </c>
       <c r="G665" s="29" t="s">
         <v>1595</v>
@@ -53240,7 +53240,7 @@
       <c r="R665" s="29" t="s">
         <v>1604</v>
       </c>
-      <c r="S665" s="59" t="s">
+      <c r="S665" s="58" t="s">
         <v>1083</v>
       </c>
       <c r="X665" s="29" t="s">
@@ -53278,8 +53278,8 @@
       <c r="B666" s="29">
         <v>10582</v>
       </c>
-      <c r="F666" s="29">
-        <v>1</v>
+      <c r="F666" s="21">
+        <v>0</v>
       </c>
       <c r="G666" s="29" t="s">
         <v>1595</v>
@@ -53311,7 +53311,7 @@
       <c r="R666" s="29" t="s">
         <v>1606</v>
       </c>
-      <c r="S666" s="59" t="s">
+      <c r="S666" s="58" t="s">
         <v>1088</v>
       </c>
       <c r="X666" s="29" t="s">
@@ -53349,8 +53349,8 @@
       <c r="B667" s="29">
         <v>10583</v>
       </c>
-      <c r="F667" s="29">
-        <v>1</v>
+      <c r="F667" s="21">
+        <v>0</v>
       </c>
       <c r="G667" s="29" t="s">
         <v>1595</v>
@@ -53382,7 +53382,7 @@
       <c r="R667" s="29" t="s">
         <v>1608</v>
       </c>
-      <c r="S667" s="59" t="s">
+      <c r="S667" s="58" t="s">
         <v>1091</v>
       </c>
       <c r="X667" s="29" t="s">
@@ -53420,8 +53420,8 @@
       <c r="B668" s="29">
         <v>10584</v>
       </c>
-      <c r="F668" s="29">
-        <v>1</v>
+      <c r="F668" s="21">
+        <v>0</v>
       </c>
       <c r="G668" s="29" t="s">
         <v>1595</v>
@@ -53453,7 +53453,7 @@
       <c r="R668" s="29" t="s">
         <v>1610</v>
       </c>
-      <c r="S668" s="59" t="s">
+      <c r="S668" s="58" t="s">
         <v>1088</v>
       </c>
       <c r="X668" s="29" t="s">
@@ -53491,8 +53491,8 @@
       <c r="B669" s="29">
         <v>10585</v>
       </c>
-      <c r="F669" s="29">
-        <v>1</v>
+      <c r="F669" s="21">
+        <v>0</v>
       </c>
       <c r="G669" s="29" t="s">
         <v>1595</v>
@@ -53524,7 +53524,7 @@
       <c r="R669" s="29" t="s">
         <v>1612</v>
       </c>
-      <c r="S669" s="59" t="s">
+      <c r="S669" s="58" t="s">
         <v>1091</v>
       </c>
       <c r="X669" s="29" t="s">
@@ -53562,8 +53562,8 @@
       <c r="B670" s="29">
         <v>10586</v>
       </c>
-      <c r="F670" s="29">
-        <v>1</v>
+      <c r="F670" s="21">
+        <v>0</v>
       </c>
       <c r="G670" s="29" t="s">
         <v>1595</v>
@@ -53595,7 +53595,7 @@
       <c r="R670" s="29" t="s">
         <v>1614</v>
       </c>
-      <c r="S670" s="59" t="s">
+      <c r="S670" s="58" t="s">
         <v>1098</v>
       </c>
       <c r="X670" s="29" t="s">
@@ -53633,8 +53633,8 @@
       <c r="B671" s="30">
         <v>10587</v>
       </c>
-      <c r="F671" s="30">
-        <v>1</v>
+      <c r="F671" s="21">
+        <v>0</v>
       </c>
       <c r="G671" s="30" t="s">
         <v>1654</v>
@@ -53704,8 +53704,8 @@
       <c r="B672" s="30">
         <v>10588</v>
       </c>
-      <c r="F672" s="30">
-        <v>1</v>
+      <c r="F672" s="21">
+        <v>0</v>
       </c>
       <c r="G672" s="30" t="s">
         <v>1654</v>
@@ -53775,8 +53775,8 @@
       <c r="B673" s="30">
         <v>10589</v>
       </c>
-      <c r="F673" s="30">
-        <v>1</v>
+      <c r="F673" s="21">
+        <v>0</v>
       </c>
       <c r="G673" s="30" t="s">
         <v>1654</v>
@@ -53846,8 +53846,8 @@
       <c r="B674" s="30">
         <v>10590</v>
       </c>
-      <c r="F674" s="30">
-        <v>1</v>
+      <c r="F674" s="21">
+        <v>0</v>
       </c>
       <c r="G674" s="30" t="s">
         <v>1654</v>
@@ -53917,8 +53917,8 @@
       <c r="B675" s="30">
         <v>10591</v>
       </c>
-      <c r="F675" s="30">
-        <v>1</v>
+      <c r="F675" s="21">
+        <v>0</v>
       </c>
       <c r="G675" s="30" t="s">
         <v>1654</v>
@@ -53988,8 +53988,8 @@
       <c r="B676" s="30">
         <v>10592</v>
       </c>
-      <c r="F676" s="30">
-        <v>1</v>
+      <c r="F676" s="21">
+        <v>0</v>
       </c>
       <c r="G676" s="30" t="s">
         <v>1654</v>
@@ -54059,8 +54059,8 @@
       <c r="B677" s="30">
         <v>10593</v>
       </c>
-      <c r="F677" s="30">
-        <v>1</v>
+      <c r="F677" s="21">
+        <v>0</v>
       </c>
       <c r="G677" s="30" t="s">
         <v>1654</v>
@@ -54130,8 +54130,8 @@
       <c r="B678" s="30">
         <v>10594</v>
       </c>
-      <c r="F678" s="30">
-        <v>1</v>
+      <c r="F678" s="21">
+        <v>0</v>
       </c>
       <c r="G678" s="30" t="s">
         <v>1654</v>
@@ -54201,8 +54201,8 @@
       <c r="B679" s="30">
         <v>10595</v>
       </c>
-      <c r="F679" s="30">
-        <v>1</v>
+      <c r="F679" s="21">
+        <v>0</v>
       </c>
       <c r="G679" s="30" t="s">
         <v>1654</v>
@@ -54272,8 +54272,8 @@
       <c r="B680" s="30">
         <v>10596</v>
       </c>
-      <c r="F680" s="30">
-        <v>1</v>
+      <c r="F680" s="21">
+        <v>0</v>
       </c>
       <c r="G680" s="30" t="s">
         <v>1654</v>
@@ -54343,8 +54343,8 @@
       <c r="B681" s="30">
         <v>10597</v>
       </c>
-      <c r="F681" s="30">
-        <v>1</v>
+      <c r="F681" s="21">
+        <v>0</v>
       </c>
       <c r="G681" s="30" t="s">
         <v>1654</v>
@@ -54414,8 +54414,8 @@
       <c r="B682" s="30">
         <v>10598</v>
       </c>
-      <c r="F682" s="30">
-        <v>1</v>
+      <c r="F682" s="21">
+        <v>0</v>
       </c>
       <c r="G682" s="30" t="s">
         <v>1654</v>
@@ -54486,7 +54486,7 @@
         <v>10599</v>
       </c>
       <c r="F683" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G683" s="31" t="s">
         <v>1657</v>
@@ -54551,7 +54551,7 @@
         <v>10600</v>
       </c>
       <c r="F684" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G684" s="31" t="s">
         <v>1657</v>
@@ -54616,7 +54616,7 @@
         <v>10601</v>
       </c>
       <c r="F685" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G685" s="31" t="s">
         <v>1657</v>
@@ -54681,7 +54681,7 @@
         <v>10602</v>
       </c>
       <c r="F686" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G686" s="31" t="s">
         <v>1657</v>
@@ -54746,7 +54746,7 @@
         <v>10603</v>
       </c>
       <c r="F687" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G687" s="31" t="s">
         <v>1657</v>
@@ -54811,7 +54811,7 @@
         <v>10604</v>
       </c>
       <c r="F688" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G688" s="31" t="s">
         <v>1657</v>
